--- a/admin/Chronogram.xlsx
+++ b/admin/Chronogram.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Documents\itesm\05-TC2009B-Aug2021\admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35524F9B-BA22-4C33-A4F2-668D09227ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE2233A-29AE-4873-9A67-B72EDF8786F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1740" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="28680" yWindow="1740" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="18">
   <si>
     <t>Week</t>
   </si>
@@ -71,12 +71,15 @@
   </si>
   <si>
     <t>Reto</t>
+  </si>
+  <si>
+    <t>Asueto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,7 +95,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,8 +132,14 @@
         <bgColor rgb="FFFFCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor rgb="FFDDEBF7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -179,53 +188,98 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,97 +287,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -639,12 +702,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -653,7 +718,7 @@
     <col min="5" max="5" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,442 +728,461 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="30" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="34">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>1</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="10">
         <v>44501</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="13">
         <v>1</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="6">
+      <c r="D3" s="31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="14">
         <v>2</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="6">
+      <c r="D4" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="14">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="29">
+        <v>4</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10">
+        <v>44504</v>
+      </c>
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="8">
-        <v>4</v>
-      </c>
-      <c r="D6" s="9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="32" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35">
-        <v>44504</v>
-      </c>
-      <c r="C7" s="4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="14">
+        <v>3</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>44508</v>
+      </c>
+      <c r="C11" s="16">
         <v>1</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="6">
+      <c r="D11" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="6">
+      <c r="D12" s="32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="17">
         <v>3</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="8">
-        <v>4</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="D13" s="34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="18">
+        <v>4</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12">
+        <v>44511</v>
+      </c>
+      <c r="C15" s="16">
+        <v>1</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="17">
         <v>2</v>
       </c>
-      <c r="B11" s="37">
-        <v>44508</v>
-      </c>
-      <c r="C11" s="10">
+      <c r="D16" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="17">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="18">
+        <v>4</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>3</v>
+      </c>
+      <c r="B19" s="6">
+        <v>44515</v>
+      </c>
+      <c r="C19" s="19">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="12">
+      <c r="D19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="20">
         <v>2</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="12">
+      <c r="D20" s="43"/>
+      <c r="F20" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="20">
         <v>3</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
-      <c r="B15" s="37">
-        <v>44511</v>
-      </c>
-      <c r="C15" s="10">
+      <c r="D21" s="43"/>
+      <c r="F21" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="21">
+        <v>4</v>
+      </c>
+      <c r="D22" s="44"/>
+      <c r="F22" s="37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6">
+        <v>44518</v>
+      </c>
+      <c r="C23" s="19">
         <v>1</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="12">
+      <c r="F23" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="20">
         <v>2</v>
       </c>
-      <c r="D16" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="12">
+      <c r="F24" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="20">
         <v>3</v>
       </c>
-      <c r="D17" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="36"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="14">
-        <v>4</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="38">
-        <v>3</v>
-      </c>
-      <c r="B19" s="39">
-        <v>44515</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="18">
-        <v>2</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="18">
-        <v>3</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="20">
-        <v>4</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="39">
-        <v>44518</v>
-      </c>
-      <c r="C23" s="16">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17" t="s">
+      <c r="F25" s="36" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="18">
-        <v>2</v>
-      </c>
-      <c r="D24" s="19" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="21">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="18">
-        <v>3</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="20">
-        <v>4</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>4</v>
-      </c>
-      <c r="B27" s="41">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>4</v>
+      </c>
+      <c r="B27" s="8">
         <v>44522</v>
       </c>
       <c r="C27" s="22">
         <v>1</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="F27" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="23">
+        <v>2</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="23">
+        <v>3</v>
+      </c>
+      <c r="F29" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="24">
-        <v>2</v>
-      </c>
-      <c r="D28" s="25" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="24">
+        <v>4</v>
+      </c>
+      <c r="F30" s="38" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="24">
-        <v>3</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="26">
-        <v>4</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="40"/>
-      <c r="B31" s="41">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8">
         <v>44525</v>
       </c>
       <c r="C31" s="22">
         <v>1</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="F31" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="23">
+        <v>2</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="23">
+        <v>3</v>
+      </c>
+      <c r="F33" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="24">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="24">
+        <v>4</v>
+      </c>
+      <c r="F34" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4">
+        <v>44529</v>
+      </c>
+      <c r="C35" s="25">
+        <v>1</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="26">
         <v>2</v>
       </c>
-      <c r="D32" s="25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="24">
+      <c r="D36" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="26">
         <v>3</v>
       </c>
-      <c r="D33" s="25" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="26">
-        <v>4</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="42">
-        <v>5</v>
-      </c>
-      <c r="B35" s="43">
-        <v>44529</v>
-      </c>
-      <c r="C35" s="28">
+      <c r="D37" s="40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="27">
+        <v>4</v>
+      </c>
+      <c r="D38" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="4">
+        <v>44532</v>
+      </c>
+      <c r="C39" s="26">
         <v>1</v>
       </c>
-      <c r="D35" s="29" t="s">
+      <c r="D39" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="30">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="26">
         <v>2</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D40" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="42"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="30">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="26">
         <v>3</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D41" s="40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="32">
-        <v>4</v>
-      </c>
-      <c r="D38" s="33" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="27">
+        <v>4</v>
+      </c>
+      <c r="D42" s="41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="42"/>
-      <c r="B39" s="43">
-        <v>44532</v>
-      </c>
-      <c r="C39" s="30">
-        <v>1</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="30">
-        <v>2</v>
-      </c>
-      <c r="D40" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="42"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="30">
-        <v>3</v>
-      </c>
-      <c r="D41" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="32">
-        <v>4</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A3:A10"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A11:A18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B15:B18"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="B39:B42"/>
@@ -1108,14 +1192,8 @@
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B31:B34"/>
-    <mergeCell ref="A3:A10"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A18"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B15:B18"/>
   </mergeCells>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>